--- a/DateBase/orders/Nhat 48_2025-12-15.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-15.xlsx
@@ -1249,6 +1249,9 @@
       <c r="G2" t="str">
         <v>01015051515555533310611515101010108510101510101010101030303063520101010181052015105101010101515101051030301010515561213.514153.556551210155520321010103</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
